--- a/Kehadiran.xlsx
+++ b/Kehadiran.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\malam gala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4DF0085-9A2F-4FED-BDAA-3DA8240D8558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83749A0F-9A23-42CD-9A6A-39ADD42A9C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{923D24B8-AD39-442F-BBED-8919358A5F7A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3320" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3791" uniqueCount="1009">
   <si>
     <t>abangfareez@uitm.edu.my</t>
   </si>
@@ -3057,6 +3057,12 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Staf</t>
   </si>
 </sst>
 </file>
@@ -3118,13 +3124,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3460,10 +3465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F599E240-4C24-45B1-94F2-AB936F6415C7}">
-  <dimension ref="A1:K471"/>
+  <dimension ref="A1:L471"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K2" sqref="K2:K471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3472,7 +3477,7 @@
     <col min="3" max="3" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>996</v>
       </c>
@@ -3504,10 +3509,13 @@
         <v>1005</v>
       </c>
       <c r="K1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L1" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45504.554732951394</v>
       </c>
@@ -3535,9 +3543,11 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K2" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45503.435381319447</v>
       </c>
@@ -3565,11 +3575,14 @@
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K3" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45497.585283043984</v>
       </c>
@@ -3597,9 +3610,11 @@
       <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K4" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45499.470742488425</v>
       </c>
@@ -3627,9 +3642,11 @@
       <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K5" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45502.350556331017</v>
       </c>
@@ -3657,9 +3674,11 @@
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45504.667882245369</v>
       </c>
@@ -3687,9 +3706,11 @@
       <c r="I7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K7" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45503.605649571764</v>
       </c>
@@ -3717,9 +3738,11 @@
       <c r="I8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K8" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45497.442886076387</v>
       </c>
@@ -3747,9 +3770,11 @@
       <c r="I9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45497.430361145831</v>
       </c>
@@ -3777,9 +3802,11 @@
       <c r="I10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45497.448384212963</v>
       </c>
@@ -3807,9 +3834,11 @@
       <c r="I11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K11" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45504.677279942131</v>
       </c>
@@ -3837,9 +3866,11 @@
       <c r="I12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45504.547719097223</v>
       </c>
@@ -3867,9 +3898,11 @@
       <c r="I13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45505.440706064815</v>
       </c>
@@ -3897,9 +3930,11 @@
       <c r="I14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45497.430045671295</v>
       </c>
@@ -3927,9 +3962,11 @@
       <c r="I15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45497.554931469909</v>
       </c>
@@ -3957,9 +3994,11 @@
       <c r="I16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45497.651877939817</v>
       </c>
@@ -3987,9 +4026,11 @@
       <c r="I17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45497.565630185185</v>
       </c>
@@ -4017,9 +4058,11 @@
       <c r="I18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45503.425212650458</v>
       </c>
@@ -4047,9 +4090,11 @@
       <c r="I19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45503.454597581018</v>
       </c>
@@ -4077,9 +4122,11 @@
       <c r="I20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45502.364427314817</v>
       </c>
@@ -4107,9 +4154,11 @@
       <c r="I21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45497.5649653125</v>
       </c>
@@ -4137,9 +4186,11 @@
       <c r="I22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45497.446225671301</v>
       </c>
@@ -4167,9 +4218,11 @@
       <c r="I23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45504.692282824079</v>
       </c>
@@ -4197,9 +4250,11 @@
       <c r="I24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45497.426562766203</v>
       </c>
@@ -4227,9 +4282,11 @@
       <c r="I25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45499.688386018519</v>
       </c>
@@ -4257,9 +4314,11 @@
       <c r="I26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45504.555311759264</v>
       </c>
@@ -4287,11 +4346,14 @@
       <c r="I27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45504.948895439811</v>
       </c>
@@ -4319,9 +4381,11 @@
       <c r="I28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45497.423291608793</v>
       </c>
@@ -4349,9 +4413,11 @@
       <c r="I29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45497.347295555555</v>
       </c>
@@ -4379,9 +4445,11 @@
       <c r="I30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45497.581810671298</v>
       </c>
@@ -4409,9 +4477,11 @@
       <c r="I31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45504.520264560182</v>
       </c>
@@ -4439,9 +4509,11 @@
       <c r="I32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45498.618841527779</v>
       </c>
@@ -4469,9 +4541,11 @@
       <c r="I33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45499.388967962965</v>
       </c>
@@ -4499,9 +4573,11 @@
       <c r="I34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45496.623792164348</v>
       </c>
@@ -4529,9 +4605,11 @@
       <c r="I35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45496.909045393521</v>
       </c>
@@ -4559,9 +4637,11 @@
       <c r="I36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45499.470630798613</v>
       </c>
@@ -4589,9 +4669,11 @@
       <c r="I37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45497.591843784721</v>
       </c>
@@ -4619,9 +4701,11 @@
       <c r="I38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45499.38467944444</v>
       </c>
@@ -4649,9 +4733,11 @@
       <c r="I39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45497.315170243055</v>
       </c>
@@ -4679,9 +4765,11 @@
       <c r="I40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45502.368667349539</v>
       </c>
@@ -4709,9 +4797,11 @@
       <c r="I41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45499.628074004635</v>
       </c>
@@ -4739,9 +4829,11 @@
       <c r="I42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45504.764004895835</v>
       </c>
@@ -4769,9 +4861,11 @@
       <c r="I43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45504.589122395832</v>
       </c>
@@ -4799,9 +4893,11 @@
       <c r="I44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45496.887509976848</v>
       </c>
@@ -4829,9 +4925,11 @@
       <c r="I45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45504.55519712963</v>
       </c>
@@ -4859,9 +4957,11 @@
       <c r="I46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45504.82736638889</v>
       </c>
@@ -4889,9 +4989,11 @@
       <c r="I47" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45498.517155451387</v>
       </c>
@@ -4919,9 +5021,11 @@
       <c r="I48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45497.650159756944</v>
       </c>
@@ -4949,9 +5053,11 @@
       <c r="I49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45502.424237233798</v>
       </c>
@@ -4979,9 +5085,11 @@
       <c r="I50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45497.480680914348</v>
       </c>
@@ -5009,9 +5117,11 @@
       <c r="I51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45504.554853993061</v>
       </c>
@@ -5039,9 +5149,11 @@
       <c r="I52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45497.438495138893</v>
       </c>
@@ -5069,9 +5181,11 @@
       <c r="I53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45496.768728506941</v>
       </c>
@@ -5099,9 +5213,11 @@
       <c r="I54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J54" s="3"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>45497.556893043977</v>
       </c>
@@ -5129,9 +5245,11 @@
       <c r="I55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J55" s="3"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K55" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>45497.435964872682</v>
       </c>
@@ -5159,9 +5277,11 @@
       <c r="I56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J56" s="3"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>45497.463169710652</v>
       </c>
@@ -5189,9 +5309,11 @@
       <c r="I57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J57" s="3"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K57" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45504.726024826392</v>
       </c>
@@ -5219,9 +5341,11 @@
       <c r="I58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J58" s="3"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45499.656027974532</v>
       </c>
@@ -5249,9 +5373,11 @@
       <c r="I59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J59" s="3"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K59" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45497.53919575231</v>
       </c>
@@ -5279,9 +5405,11 @@
       <c r="I60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J60" s="3"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K60" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>45497.61403074074</v>
       </c>
@@ -5309,9 +5437,11 @@
       <c r="I61" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J61" s="3"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K61" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45503.411940115737</v>
       </c>
@@ -5339,9 +5469,11 @@
       <c r="I62" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J62" s="3"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K62" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>45497.371392314817</v>
       </c>
@@ -5369,9 +5501,11 @@
       <c r="I63" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J63" s="3"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K63" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>45497.486847708336</v>
       </c>
@@ -5399,9 +5533,11 @@
       <c r="I64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J64" s="3"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K64" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>45497.899704861113</v>
       </c>
@@ -5429,9 +5565,11 @@
       <c r="I65" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J65" s="3"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K65" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>45499.290323761576</v>
       </c>
@@ -5459,9 +5597,11 @@
       <c r="I66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J66" s="3"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K66" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>45496.784004108791</v>
       </c>
@@ -5489,9 +5629,11 @@
       <c r="I67" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J67" s="3"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K67" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>45497.510843657408</v>
       </c>
@@ -5519,9 +5661,11 @@
       <c r="I68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J68" s="3"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>45497.424271979165</v>
       </c>
@@ -5549,11 +5693,14 @@
       <c r="I69" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J69" s="5" t="s">
+      <c r="J69" s="4" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K69" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>45504.498062581013</v>
       </c>
@@ -5581,9 +5728,11 @@
       <c r="I70" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J70" s="3"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K70" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>45497.528080694443</v>
       </c>
@@ -5612,8 +5761,11 @@
         <v>6</v>
       </c>
       <c r="J71" s="2"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>45497.56956625</v>
       </c>
@@ -5641,9 +5793,11 @@
       <c r="I72" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J72" s="3"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>45497.464197997688</v>
       </c>
@@ -5671,9 +5825,11 @@
       <c r="I73" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J73" s="3"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>45503.55790274305</v>
       </c>
@@ -5701,9 +5857,11 @@
       <c r="I74" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J74" s="3"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>45499.487028599542</v>
       </c>
@@ -5731,9 +5889,11 @@
       <c r="I75" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J75" s="3"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K75" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>45497.534343541665</v>
       </c>
@@ -5761,9 +5921,11 @@
       <c r="I76" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J76" s="3"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K76" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>45504.590115011575</v>
       </c>
@@ -5791,9 +5953,11 @@
       <c r="I77" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J77" s="3"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K77" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>45504.747944699076</v>
       </c>
@@ -5821,9 +5985,11 @@
       <c r="I78" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J78" s="3"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K78" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>45497.671329236109</v>
       </c>
@@ -5851,9 +6017,11 @@
       <c r="I79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J79" s="3"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K79" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>45504.544592384264</v>
       </c>
@@ -5881,9 +6049,11 @@
       <c r="I80" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J80" s="3"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K80" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>45498.626918113427</v>
       </c>
@@ -5911,9 +6081,11 @@
       <c r="I81" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J81" s="3"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K81" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>45497.522785173613</v>
       </c>
@@ -5941,9 +6113,11 @@
       <c r="I82" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J82" s="3"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K82" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>45502.369717453708</v>
       </c>
@@ -5971,9 +6145,11 @@
       <c r="I83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J83" s="3"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K83" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>45497.586230844907</v>
       </c>
@@ -6001,9 +6177,11 @@
       <c r="I84" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J84" s="3"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K84" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>45496.849841284726</v>
       </c>
@@ -6031,9 +6209,11 @@
       <c r="I85" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J85" s="3"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K85" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>45502.533024293982</v>
       </c>
@@ -6061,9 +6241,11 @@
       <c r="I86" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J86" s="3"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K86" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>45499.606720266209</v>
       </c>
@@ -6091,9 +6273,11 @@
       <c r="I87" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J87" s="3"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K87" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>45504.537072905092</v>
       </c>
@@ -6121,9 +6305,11 @@
       <c r="I88" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J88" s="3"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K88" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>45497.433286898144</v>
       </c>
@@ -6151,9 +6337,11 @@
       <c r="I89" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J89" s="3"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K89" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>45498.485331956021</v>
       </c>
@@ -6181,9 +6369,11 @@
       <c r="I90" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J90" s="3"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K90" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>45504.603398125</v>
       </c>
@@ -6211,9 +6401,11 @@
       <c r="I91" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J91" s="3"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K91" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>45498.461122962966</v>
       </c>
@@ -6241,9 +6433,11 @@
       <c r="I92" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J92" s="3"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K92" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>45502.371236203704</v>
       </c>
@@ -6271,11 +6465,14 @@
       <c r="I93" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J93" s="5" t="s">
+      <c r="J93" s="4" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K93" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>45504.699539780093</v>
       </c>
@@ -6303,9 +6500,11 @@
       <c r="I94" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J94" s="3"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K94" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>45497.509141921299</v>
       </c>
@@ -6333,9 +6532,11 @@
       <c r="I95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J95" s="3"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K95" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>45497.597538784721</v>
       </c>
@@ -6363,9 +6564,11 @@
       <c r="I96" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J96" s="3"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K96" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>45497.498320937499</v>
       </c>
@@ -6393,9 +6596,11 @@
       <c r="I97" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J97" s="3"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K97" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>45499.363779826388</v>
       </c>
@@ -6423,9 +6628,11 @@
       <c r="I98" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J98" s="3"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K98" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>45499.375659108795</v>
       </c>
@@ -6453,9 +6660,11 @@
       <c r="I99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J99" s="3"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K99" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>45502.908192685187</v>
       </c>
@@ -6483,9 +6692,11 @@
       <c r="I100" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J100" s="3"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K100" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>45497.65997818287</v>
       </c>
@@ -6513,9 +6724,11 @@
       <c r="I101" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J101" s="3"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K101" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>45497.466292569443</v>
       </c>
@@ -6543,9 +6756,11 @@
       <c r="I102" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J102" s="3"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K102" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>45497.430399074074</v>
       </c>
@@ -6573,9 +6788,11 @@
       <c r="I103" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J103" s="3"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K103" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>45498.464731168977</v>
       </c>
@@ -6603,9 +6820,11 @@
       <c r="I104" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J104" s="3"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K104" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>45502.66925471065</v>
       </c>
@@ -6633,9 +6852,11 @@
       <c r="I105" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J105" s="3"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K105" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>45503.723078402778</v>
       </c>
@@ -6663,9 +6884,11 @@
       <c r="I106" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J106" s="3"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K106" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>45497.824097060184</v>
       </c>
@@ -6693,9 +6916,11 @@
       <c r="I107" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J107" s="3"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K107" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>45497.461547592597</v>
       </c>
@@ -6723,9 +6948,11 @@
       <c r="I108" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J108" s="3"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K108" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>45504.564902048616</v>
       </c>
@@ -6753,9 +6980,11 @@
       <c r="I109" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J109" s="3"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K109" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>45497.32585710648</v>
       </c>
@@ -6783,9 +7012,11 @@
       <c r="I110" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J110" s="3"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K110" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>45497.688941296292</v>
       </c>
@@ -6813,9 +7044,11 @@
       <c r="I111" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J111" s="3"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K111" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>45497.431992962964</v>
       </c>
@@ -6843,9 +7076,11 @@
       <c r="I112" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J112" s="3"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K112" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>45502.471823749998</v>
       </c>
@@ -6873,9 +7108,11 @@
       <c r="I113" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J113" s="3"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K113" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>45498.646630659721</v>
       </c>
@@ -6903,9 +7140,11 @@
       <c r="I114" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J114" s="3"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K114" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>45497.487080023144</v>
       </c>
@@ -6933,9 +7172,11 @@
       <c r="I115" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J115" s="3"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K115" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>45498.362614849539</v>
       </c>
@@ -6963,9 +7204,11 @@
       <c r="I116" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J116" s="3"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K116" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>45496.934219826391</v>
       </c>
@@ -6993,9 +7236,11 @@
       <c r="I117" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J117" s="3"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K117" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>45504.526730995371</v>
       </c>
@@ -7023,9 +7268,11 @@
       <c r="I118" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J118" s="3"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K118" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>45497.429130277778</v>
       </c>
@@ -7053,9 +7300,11 @@
       <c r="I119" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J119" s="3"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K119" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>45504.555691782407</v>
       </c>
@@ -7083,9 +7332,11 @@
       <c r="I120" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J120" s="3"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K120" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>45497.309307789357</v>
       </c>
@@ -7113,9 +7364,11 @@
       <c r="I121" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J121" s="3"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K121" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>45498.423028310186</v>
       </c>
@@ -7143,9 +7396,11 @@
       <c r="I122" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J122" s="3"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K122" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>45504.692307025463</v>
       </c>
@@ -7173,9 +7428,11 @@
       <c r="I123" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J123" s="3"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K123" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>45497.57818916667</v>
       </c>
@@ -7203,9 +7460,11 @@
       <c r="I124" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J124" s="3"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K124" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>45504.520156064813</v>
       </c>
@@ -7233,9 +7492,11 @@
       <c r="I125" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J125" s="3"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K125" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>45504.452616145834</v>
       </c>
@@ -7263,9 +7524,11 @@
       <c r="I126" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J126" s="3"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K126" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>45497.691281388892</v>
       </c>
@@ -7293,9 +7556,11 @@
       <c r="I127" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J127" s="3"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K127" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>45497.564467222226</v>
       </c>
@@ -7323,9 +7588,11 @@
       <c r="I128" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J128" s="3"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K128" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>45497.674088101849</v>
       </c>
@@ -7353,9 +7620,11 @@
       <c r="I129" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J129" s="3"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K129" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>45498.50181710648</v>
       </c>
@@ -7383,9 +7652,11 @@
       <c r="I130" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J130" s="3"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K130" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>45502.816040474536</v>
       </c>
@@ -7413,9 +7684,11 @@
       <c r="I131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J131" s="3"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K131" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>45497.592321354168</v>
       </c>
@@ -7443,9 +7716,11 @@
       <c r="I132" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J132" s="3"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K132" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>45502.437076319446</v>
       </c>
@@ -7473,9 +7748,11 @@
       <c r="I133" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J133" s="3"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K133" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>45497.443054652773</v>
       </c>
@@ -7503,9 +7780,11 @@
       <c r="I134" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J134" s="3"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K134" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>45497.547400972224</v>
       </c>
@@ -7533,9 +7812,11 @@
       <c r="I135" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J135" s="3"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K135" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>45498.428098680553</v>
       </c>
@@ -7563,9 +7844,11 @@
       <c r="I136" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J136" s="3"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K136" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>45503.60423394676</v>
       </c>
@@ -7593,9 +7876,11 @@
       <c r="I137" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J137" s="3"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K137" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>45497.427197118057</v>
       </c>
@@ -7623,9 +7908,11 @@
       <c r="I138" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J138" s="3"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K138" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>45499.817647337964</v>
       </c>
@@ -7653,9 +7940,11 @@
       <c r="I139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J139" s="3"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K139" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>45496.86846179398</v>
       </c>
@@ -7683,9 +7972,11 @@
       <c r="I140" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J140" s="3"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K140" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>45500.619462870367</v>
       </c>
@@ -7713,9 +8004,11 @@
       <c r="I141" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J141" s="3"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K141" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>45497.543318425931</v>
       </c>
@@ -7743,9 +8036,11 @@
       <c r="I142" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J142" s="3"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K142" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>45497.456927777777</v>
       </c>
@@ -7773,9 +8068,11 @@
       <c r="I143" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J143" s="3"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K143" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>45502.472033101847</v>
       </c>
@@ -7803,9 +8100,11 @@
       <c r="I144" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J144" s="3"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K144" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>45497.428327858797</v>
       </c>
@@ -7833,9 +8132,11 @@
       <c r="I145" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J145" s="3"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K145" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>45503.704928148145</v>
       </c>
@@ -7863,9 +8164,11 @@
       <c r="I146" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J146" s="3"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K146" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>45498.429244432875</v>
       </c>
@@ -7893,9 +8196,11 @@
       <c r="I147" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J147" s="3"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K147" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>45502.724124537039</v>
       </c>
@@ -7923,9 +8228,11 @@
       <c r="I148" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J148" s="3"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K148" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>45498.500428263884</v>
       </c>
@@ -7953,9 +8260,11 @@
       <c r="I149" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J149" s="3"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K149" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>45498.588988171294</v>
       </c>
@@ -7983,9 +8292,11 @@
       <c r="I150" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J150" s="3"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K150" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>45497.513713576387</v>
       </c>
@@ -8013,9 +8324,11 @@
       <c r="I151" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J151" s="3"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K151" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>45503.538048043978</v>
       </c>
@@ -8043,9 +8356,11 @@
       <c r="I152" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J152" s="3"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K152" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>45503.71072805555</v>
       </c>
@@ -8074,8 +8389,11 @@
         <v>6</v>
       </c>
       <c r="J153" s="2"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K153" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>45497.445641284721</v>
       </c>
@@ -8103,9 +8421,11 @@
       <c r="I154" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J154" s="3"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K154" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>45504.526737083332</v>
       </c>
@@ -8133,9 +8453,11 @@
       <c r="I155" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J155" s="3"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K155" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>45502.434196018519</v>
       </c>
@@ -8163,9 +8485,11 @@
       <c r="I156" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J156" s="3"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K156" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>45503.360156030089</v>
       </c>
@@ -8193,9 +8517,11 @@
       <c r="I157" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J157" s="3"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K157" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>45496.899622800927</v>
       </c>
@@ -8223,9 +8549,11 @@
       <c r="I158" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J158" s="3"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K158" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>45498.531571909727</v>
       </c>
@@ -8253,9 +8581,11 @@
       <c r="I159" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J159" s="3"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K159" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>45497.595221539348</v>
       </c>
@@ -8283,9 +8613,11 @@
       <c r="I160" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J160" s="3"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K160" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>45497.480043969903</v>
       </c>
@@ -8313,9 +8645,11 @@
       <c r="I161" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J161" s="3"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K161" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>45497.590741874999</v>
       </c>
@@ -8343,9 +8677,11 @@
       <c r="I162" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J162" s="3"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K162" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>45497.468589594908</v>
       </c>
@@ -8373,9 +8709,11 @@
       <c r="I163" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J163" s="3"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K163" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>45497.571104282411</v>
       </c>
@@ -8403,9 +8741,11 @@
       <c r="I164" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J164" s="3"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K164" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>45504.666578657409</v>
       </c>
@@ -8433,9 +8773,11 @@
       <c r="I165" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J165" s="3"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K165" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>45503.738073946763</v>
       </c>
@@ -8463,9 +8805,11 @@
       <c r="I166" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J166" s="3"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K166" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>45499.317803379628</v>
       </c>
@@ -8493,9 +8837,11 @@
       <c r="I167" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J167" s="3"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K167" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>45497.566697476854</v>
       </c>
@@ -8523,9 +8869,11 @@
       <c r="I168" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J168" s="3"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K168" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>45502.698343773147</v>
       </c>
@@ -8553,9 +8901,11 @@
       <c r="I169" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J169" s="3"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K169" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>45504.634884618055</v>
       </c>
@@ -8583,9 +8933,11 @@
       <c r="I170" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J170" s="3"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K170" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>45497.576270509264</v>
       </c>
@@ -8613,9 +8965,11 @@
       <c r="I171" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J171" s="3"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K171" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>45497.905487083335</v>
       </c>
@@ -8643,9 +8997,11 @@
       <c r="I172" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J172" s="3"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K172" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>45504.554825995372</v>
       </c>
@@ -8673,9 +9029,11 @@
       <c r="I173" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J173" s="3"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K173" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>45504.589627592592</v>
       </c>
@@ -8703,9 +9061,11 @@
       <c r="I174" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J174" s="3"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K174" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>45504.641670902776</v>
       </c>
@@ -8733,9 +9093,11 @@
       <c r="I175" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J175" s="3"/>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K175" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>45498.439247939816</v>
       </c>
@@ -8763,9 +9125,11 @@
       <c r="I176" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J176" s="3"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K176" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>45498.472246458332</v>
       </c>
@@ -8793,9 +9157,11 @@
       <c r="I177" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J177" s="3"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K177" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>45497.37136561342</v>
       </c>
@@ -8823,9 +9189,11 @@
       <c r="I178" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J178" s="3"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K178" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>45504.623580937499</v>
       </c>
@@ -8853,9 +9221,11 @@
       <c r="I179" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J179" s="3"/>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K179" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>45497.496192164355</v>
       </c>
@@ -8883,9 +9253,11 @@
       <c r="I180" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J180" s="3"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K180" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>45497.53935712963</v>
       </c>
@@ -8913,9 +9285,11 @@
       <c r="I181" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J181" s="3"/>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K181" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>45497.594791180556</v>
       </c>
@@ -8943,9 +9317,11 @@
       <c r="I182" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J182" s="3"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K182" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>45504.528839224542</v>
       </c>
@@ -8973,9 +9349,11 @@
       <c r="I183" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J183" s="3"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K183" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>45504.739143240746</v>
       </c>
@@ -9003,9 +9381,11 @@
       <c r="I184" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J184" s="3"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K184" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>45497.535643692128</v>
       </c>
@@ -9033,9 +9413,11 @@
       <c r="I185" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J185" s="3"/>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K185" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>45504.642551620374</v>
       </c>
@@ -9063,9 +9445,11 @@
       <c r="I186" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J186" s="3"/>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K186" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>45504.574982256949</v>
       </c>
@@ -9093,9 +9477,11 @@
       <c r="I187" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J187" s="3"/>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K187" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>45504.518875520836</v>
       </c>
@@ -9123,9 +9509,11 @@
       <c r="I188" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J188" s="3"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K188" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>45504.740619039352</v>
       </c>
@@ -9153,9 +9541,11 @@
       <c r="I189" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J189" s="3"/>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K189" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>45497.468433738424</v>
       </c>
@@ -9183,9 +9573,11 @@
       <c r="I190" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J190" s="3"/>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K190" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>45504.613671307874</v>
       </c>
@@ -9213,9 +9605,11 @@
       <c r="I191" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J191" s="3"/>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K191" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>45497.526440810187</v>
       </c>
@@ -9243,9 +9637,11 @@
       <c r="I192" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J192" s="3"/>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K192" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>45499.711776458338</v>
       </c>
@@ -9273,11 +9669,14 @@
       <c r="I193" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J193" s="5" t="s">
+      <c r="J193" s="4" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K193" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>45497.465974074075</v>
       </c>
@@ -9305,9 +9704,11 @@
       <c r="I194" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J194" s="3"/>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K194" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>45497.568816296298</v>
       </c>
@@ -9335,9 +9736,11 @@
       <c r="I195" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J195" s="3"/>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K195" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>45504.655071076384</v>
       </c>
@@ -9365,9 +9768,11 @@
       <c r="I196" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J196" s="3"/>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K196" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>45497.429632858795</v>
       </c>
@@ -9395,9 +9800,11 @@
       <c r="I197" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J197" s="3"/>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K197" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>45503.698778067133</v>
       </c>
@@ -9425,9 +9832,11 @@
       <c r="I198" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J198" s="3"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K198" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>45503.657535231483</v>
       </c>
@@ -9455,9 +9864,11 @@
       <c r="I199" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J199" s="3"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K199" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>45504.626008645835</v>
       </c>
@@ -9485,11 +9896,14 @@
       <c r="I200" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J200" s="5" t="s">
+      <c r="J200" s="4" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K200" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>45504.542702499995</v>
       </c>
@@ -9517,9 +9931,11 @@
       <c r="I201" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J201" s="3"/>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K201" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>45503.504562523143</v>
       </c>
@@ -9547,9 +9963,11 @@
       <c r="I202" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J202" s="3"/>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K202" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>45497.553532615741</v>
       </c>
@@ -9577,11 +9995,14 @@
       <c r="I203" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J203" s="5" t="s">
+      <c r="J203" s="4" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K203" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>45499.803173171298</v>
       </c>
@@ -9609,9 +10030,11 @@
       <c r="I204" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J204" s="3"/>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K204" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>45498.371145879632</v>
       </c>
@@ -9639,9 +10062,11 @@
       <c r="I205" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J205" s="3"/>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K205" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>45499.758262928241</v>
       </c>
@@ -9669,9 +10094,11 @@
       <c r="I206" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J206" s="3"/>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K206" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>45496.866081365741</v>
       </c>
@@ -9699,9 +10126,11 @@
       <c r="I207" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J207" s="3"/>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K207" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>45497.446774317126</v>
       </c>
@@ -9729,9 +10158,11 @@
       <c r="I208" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J208" s="3"/>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K208" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>45498.724752719907</v>
       </c>
@@ -9759,9 +10190,11 @@
       <c r="I209" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J209" s="3"/>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K209" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>45497.438302766204</v>
       </c>
@@ -9789,9 +10222,11 @@
       <c r="I210" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J210" s="3"/>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K210" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>45502.570273229168</v>
       </c>
@@ -9819,9 +10254,11 @@
       <c r="I211" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J211" s="3"/>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K211" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>45497.435898703705</v>
       </c>
@@ -9849,9 +10286,11 @@
       <c r="I212" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J212" s="3"/>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K212" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>45497.407738136579</v>
       </c>
@@ -9879,9 +10318,11 @@
       <c r="I213" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J213" s="3"/>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K213" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>45502.316666736107</v>
       </c>
@@ -9909,9 +10350,11 @@
       <c r="I214" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J214" s="3"/>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K214" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>45498.342540555561</v>
       </c>
@@ -9939,9 +10382,11 @@
       <c r="I215" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J215" s="3"/>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K215" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>45497.347649131945</v>
       </c>
@@ -9969,9 +10414,11 @@
       <c r="I216" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J216" s="3"/>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K216" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>45497.416678541667</v>
       </c>
@@ -9999,9 +10446,11 @@
       <c r="I217" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J217" s="3"/>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K217" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>45503.483695798612</v>
       </c>
@@ -10029,9 +10478,11 @@
       <c r="I218" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J218" s="3"/>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K218" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>45497.632225208334</v>
       </c>
@@ -10059,9 +10510,11 @@
       <c r="I219" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J219" s="3"/>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K219" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>45497.64531954861</v>
       </c>
@@ -10089,9 +10542,11 @@
       <c r="I220" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J220" s="3"/>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K220" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>45498.41843179398</v>
       </c>
@@ -10119,9 +10574,11 @@
       <c r="I221" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J221" s="3"/>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K221" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>45497.512110960648</v>
       </c>
@@ -10149,9 +10606,11 @@
       <c r="I222" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J222" s="3"/>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K222" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>45497.447902592598</v>
       </c>
@@ -10179,9 +10638,11 @@
       <c r="I223" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J223" s="3"/>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K223" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>45499.508436111108</v>
       </c>
@@ -10209,9 +10670,11 @@
       <c r="I224" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J224" s="3"/>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K224" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>45502.511186967589</v>
       </c>
@@ -10239,9 +10702,11 @@
       <c r="I225" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J225" s="3"/>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K225" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>45504.660974942133</v>
       </c>
@@ -10269,9 +10734,11 @@
       <c r="I226" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J226" s="3"/>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K226" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>45504.635921342589</v>
       </c>
@@ -10299,9 +10766,11 @@
       <c r="I227" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J227" s="3"/>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K227" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>45498.484016585644</v>
       </c>
@@ -10329,9 +10798,11 @@
       <c r="I228" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J228" s="3"/>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K228" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>45497.488457222222</v>
       </c>
@@ -10359,9 +10830,11 @@
       <c r="I229" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J229" s="3"/>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K229" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>45504.522070381943</v>
       </c>
@@ -10389,9 +10862,11 @@
       <c r="I230" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J230" s="3"/>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K230" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>45499.396168738429</v>
       </c>
@@ -10419,9 +10894,11 @@
       <c r="I231" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J231" s="3"/>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K231" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>45497.431660543982</v>
       </c>
@@ -10449,9 +10926,11 @@
       <c r="I232" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J232" s="3"/>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K232" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>45504.546499884258</v>
       </c>
@@ -10479,9 +10958,11 @@
       <c r="I233" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J233" s="3"/>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K233" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>45498.431470185184</v>
       </c>
@@ -10509,9 +10990,11 @@
       <c r="I234" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J234" s="3"/>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K234" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>45504.644670069443</v>
       </c>
@@ -10539,9 +11022,11 @@
       <c r="I235" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J235" s="3"/>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K235" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>45497.495683171292</v>
       </c>
@@ -10569,9 +11054,11 @@
       <c r="I236" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J236" s="3"/>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K236" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>45501.771836134256</v>
       </c>
@@ -10599,9 +11086,11 @@
       <c r="I237" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J237" s="3"/>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K237" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>45504.487524988421</v>
       </c>
@@ -10629,9 +11118,11 @@
       <c r="I238" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J238" s="3"/>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K238" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>45497.448300150463</v>
       </c>
@@ -10659,9 +11150,11 @@
       <c r="I239" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J239" s="3"/>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K239" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>45503.96669883102</v>
       </c>
@@ -10689,9 +11182,11 @@
       <c r="I240" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J240" s="3"/>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K240" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>45503.507443136579</v>
       </c>
@@ -10719,9 +11214,11 @@
       <c r="I241" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J241" s="3"/>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K241" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>45497.4347562037</v>
       </c>
@@ -10749,9 +11246,11 @@
       <c r="I242" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J242" s="3"/>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K242" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>45503.604755613429</v>
       </c>
@@ -10779,9 +11278,11 @@
       <c r="I243" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J243" s="3"/>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K243" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>45502.393943171293</v>
       </c>
@@ -10809,9 +11310,11 @@
       <c r="I244" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J244" s="3"/>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K244" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>45497.485313715282</v>
       </c>
@@ -10839,9 +11342,11 @@
       <c r="I245" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J245" s="3"/>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K245" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>45504.713399849541</v>
       </c>
@@ -10869,11 +11374,14 @@
       <c r="I246" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J246" s="5" t="s">
+      <c r="J246" s="4" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K246" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>45497.431794942131</v>
       </c>
@@ -10901,9 +11409,11 @@
       <c r="I247" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J247" s="3"/>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K247" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>45500.55988291667</v>
       </c>
@@ -10931,9 +11441,11 @@
       <c r="I248" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J248" s="3"/>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K248" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>45497.430825300922</v>
       </c>
@@ -10961,9 +11473,11 @@
       <c r="I249" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J249" s="3"/>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K249" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>45498.950958912035</v>
       </c>
@@ -10991,9 +11505,11 @@
       <c r="I250" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J250" s="3"/>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K250" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>45499.385579212962</v>
       </c>
@@ -11021,9 +11537,11 @@
       <c r="I251" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J251" s="3"/>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K251" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>45501.757542777777</v>
       </c>
@@ -11051,9 +11569,11 @@
       <c r="I252" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J252" s="3"/>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K252" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>45502.673162789353</v>
       </c>
@@ -11081,9 +11601,11 @@
       <c r="I253" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J253" s="3"/>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K253" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>45497.667031631943</v>
       </c>
@@ -11111,11 +11633,14 @@
       <c r="I254" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J254" s="5" t="s">
+      <c r="J254" s="4" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K254" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>45497.448733055557</v>
       </c>
@@ -11144,8 +11669,11 @@
         <v>6</v>
       </c>
       <c r="J255" s="2"/>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K255" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>45499.467170335643</v>
       </c>
@@ -11173,9 +11701,11 @@
       <c r="I256" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J256" s="3"/>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K256" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>45498.778709594902</v>
       </c>
@@ -11203,9 +11733,11 @@
       <c r="I257" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J257" s="3"/>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K257" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>45501.987765428239</v>
       </c>
@@ -11233,9 +11765,11 @@
       <c r="I258" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J258" s="3"/>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K258" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>45497.600836365746</v>
       </c>
@@ -11263,9 +11797,11 @@
       <c r="I259" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J259" s="3"/>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K259" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>45500.380369826387</v>
       </c>
@@ -11293,9 +11829,11 @@
       <c r="I260" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J260" s="3"/>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K260" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>45500.564950023152</v>
       </c>
@@ -11323,9 +11861,11 @@
       <c r="I261" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J261" s="3"/>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K261" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>45501.764951944446</v>
       </c>
@@ -11353,9 +11893,11 @@
       <c r="I262" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J262" s="3"/>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K262" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>45504.561404930559</v>
       </c>
@@ -11383,9 +11925,11 @@
       <c r="I263" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J263" s="3"/>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K263" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>45496.960359756944</v>
       </c>
@@ -11413,9 +11957,11 @@
       <c r="I264" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J264" s="3"/>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K264" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>45498.476739004633</v>
       </c>
@@ -11443,9 +11989,11 @@
       <c r="I265" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J265" s="3"/>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K265" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>45497.934243287033</v>
       </c>
@@ -11473,9 +12021,11 @@
       <c r="I266" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J266" s="3"/>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K266" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>45504.569137523147</v>
       </c>
@@ -11503,9 +12053,11 @@
       <c r="I267" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J267" s="3"/>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K267" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>45502.746749479164</v>
       </c>
@@ -11533,9 +12085,11 @@
       <c r="I268" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J268" s="3"/>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K268" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>45497.451667638888</v>
       </c>
@@ -11563,9 +12117,11 @@
       <c r="I269" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J269" s="3"/>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K269" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>45496.874668113422</v>
       </c>
@@ -11593,9 +12149,11 @@
       <c r="I270" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J270" s="3"/>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K270" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>45497.54656372685</v>
       </c>
@@ -11623,9 +12181,11 @@
       <c r="I271" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J271" s="3"/>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K271" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>45504.642718368057</v>
       </c>
@@ -11653,9 +12213,11 @@
       <c r="I272" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J272" s="3"/>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K272" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>45496.795226134258</v>
       </c>
@@ -11683,9 +12245,11 @@
       <c r="I273" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J273" s="3"/>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K273" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>45497.957768645836</v>
       </c>
@@ -11713,9 +12277,11 @@
       <c r="I274" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J274" s="3"/>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K274" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>45503.644248310186</v>
       </c>
@@ -11743,9 +12309,11 @@
       <c r="I275" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J275" s="3"/>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K275" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>45497.396363900465</v>
       </c>
@@ -11773,9 +12341,11 @@
       <c r="I276" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J276" s="3"/>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K276" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>45497.498270833334</v>
       </c>
@@ -11804,8 +12374,11 @@
         <v>6</v>
       </c>
       <c r="J277" s="2"/>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K277" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>45496.867299999998</v>
       </c>
@@ -11833,9 +12406,11 @@
       <c r="I278" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J278" s="3"/>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K278" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>45504.680409942128</v>
       </c>
@@ -11863,9 +12438,11 @@
       <c r="I279" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J279" s="3"/>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K279" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>45503.582907962962</v>
       </c>
@@ -11893,9 +12470,11 @@
       <c r="I280" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J280" s="3"/>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K280" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>45498.43806695602</v>
       </c>
@@ -11923,9 +12502,11 @@
       <c r="I281" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J281" s="3"/>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K281" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>45497.447865601847</v>
       </c>
@@ -11953,9 +12534,11 @@
       <c r="I282" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J282" s="3"/>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K282" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>45498.784662789352</v>
       </c>
@@ -11983,9 +12566,11 @@
       <c r="I283" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J283" s="3"/>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K283" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>45498.460536990737</v>
       </c>
@@ -12013,9 +12598,11 @@
       <c r="I284" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J284" s="3"/>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K284" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>45497.438676203703</v>
       </c>
@@ -12043,9 +12630,11 @@
       <c r="I285" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J285" s="3"/>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K285" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>45503.4603694213</v>
       </c>
@@ -12073,9 +12662,11 @@
       <c r="I286" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J286" s="3"/>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K286" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>45497.648622349538</v>
       </c>
@@ -12103,9 +12694,11 @@
       <c r="I287" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J287" s="3"/>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K287" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>45497.426912037037</v>
       </c>
@@ -12133,9 +12726,11 @@
       <c r="I288" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J288" s="3"/>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K288" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>45504.522505972222</v>
       </c>
@@ -12163,9 +12758,11 @@
       <c r="I289" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J289" s="3"/>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K289" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>45504.660324386576</v>
       </c>
@@ -12193,9 +12790,11 @@
       <c r="I290" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J290" s="3"/>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K290" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>45504.729302731481</v>
       </c>
@@ -12223,9 +12822,11 @@
       <c r="I291" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J291" s="3"/>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K291" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>45503.541282685183</v>
       </c>
@@ -12253,9 +12854,11 @@
       <c r="I292" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J292" s="3"/>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K292" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>45498.414334722227</v>
       </c>
@@ -12283,9 +12886,11 @@
       <c r="I293" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J293" s="3"/>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K293" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>45502.81145731482</v>
       </c>
@@ -12313,9 +12918,11 @@
       <c r="I294" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J294" s="3"/>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K294" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>45497.579805659727</v>
       </c>
@@ -12343,9 +12950,11 @@
       <c r="I295" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J295" s="3"/>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K295" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>45496.781816469906</v>
       </c>
@@ -12373,9 +12982,11 @@
       <c r="I296" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J296" s="3"/>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K296" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>45504.659595671299</v>
       </c>
@@ -12403,9 +13014,11 @@
       <c r="I297" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J297" s="3"/>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K297" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>45504.598425717588</v>
       </c>
@@ -12433,9 +13046,11 @@
       <c r="I298" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J298" s="3"/>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K298" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>45504.643847928237</v>
       </c>
@@ -12463,9 +13078,11 @@
       <c r="I299" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J299" s="3"/>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K299" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>45504.647027349536</v>
       </c>
@@ -12493,9 +13110,11 @@
       <c r="I300" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J300" s="3"/>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K300" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>45502.389265254635</v>
       </c>
@@ -12523,9 +13142,11 @@
       <c r="I301" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J301" s="3"/>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K301" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>45499.444443402783</v>
       </c>
@@ -12554,8 +13175,11 @@
         <v>6</v>
       </c>
       <c r="J302" s="2"/>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K302" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>45498.98206278935</v>
       </c>
@@ -12584,8 +13208,11 @@
         <v>16</v>
       </c>
       <c r="J303" s="2"/>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K303" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>45504.672464641204</v>
       </c>
@@ -12614,8 +13241,11 @@
         <v>16</v>
       </c>
       <c r="J304" s="2"/>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K304" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>45497.439669444444</v>
       </c>
@@ -12643,9 +13273,11 @@
       <c r="I305" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J305" s="3"/>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K305" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>45497.706176979162</v>
       </c>
@@ -12673,9 +13305,11 @@
       <c r="I306" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J306" s="3"/>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K306" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>45504.777053773149</v>
       </c>
@@ -12703,9 +13337,11 @@
       <c r="I307" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J307" s="3"/>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K307" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>45499.481217303241</v>
       </c>
@@ -12734,8 +13370,11 @@
         <v>16</v>
       </c>
       <c r="J308" s="2"/>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K308" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>45498.521134895833</v>
       </c>
@@ -12763,9 +13402,11 @@
       <c r="I309" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J309" s="3"/>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K309" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>45497.434519537041</v>
       </c>
@@ -12793,9 +13434,11 @@
       <c r="I310" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J310" s="3"/>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K310" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>45497.639998935185</v>
       </c>
@@ -12823,9 +13466,11 @@
       <c r="I311" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J311" s="3"/>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K311" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>45497.433885497681</v>
       </c>
@@ -12853,9 +13498,11 @@
       <c r="I312" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J312" s="3"/>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K312" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>45499.778706157405</v>
       </c>
@@ -12883,9 +13530,11 @@
       <c r="I313" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J313" s="3"/>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K313" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>45504.777204085651</v>
       </c>
@@ -12913,9 +13562,11 @@
       <c r="I314" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J314" s="3"/>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K314" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>45497.449451412038</v>
       </c>
@@ -12943,9 +13594,11 @@
       <c r="I315" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J315" s="3"/>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K315" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>45499.699815486107</v>
       </c>
@@ -12973,9 +13626,11 @@
       <c r="I316" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J316" s="3"/>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K316" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>45497.558411261576</v>
       </c>
@@ -13003,9 +13658,11 @@
       <c r="I317" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J317" s="3"/>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K317" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>45499.489225277779</v>
       </c>
@@ -13033,9 +13690,11 @@
       <c r="I318" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J318" s="3"/>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K318" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>45504.517411655092</v>
       </c>
@@ -13063,9 +13722,11 @@
       <c r="I319" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J319" s="3"/>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K319" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>45499.383434756943</v>
       </c>
@@ -13093,9 +13754,11 @@
       <c r="I320" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J320" s="3"/>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K320" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>45497.57863797454</v>
       </c>
@@ -13123,9 +13786,11 @@
       <c r="I321" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J321" s="3"/>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K321" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>45498.618752592593</v>
       </c>
@@ -13153,9 +13818,11 @@
       <c r="I322" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J322" s="3"/>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K322" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>45497.522239756945</v>
       </c>
@@ -13183,9 +13850,11 @@
       <c r="I323" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J323" s="3"/>
-    </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K323" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>45504.651862766201</v>
       </c>
@@ -13213,9 +13882,11 @@
       <c r="I324" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J324" s="3"/>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K324" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>45497.670685949073</v>
       </c>
@@ -13243,9 +13914,11 @@
       <c r="I325" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J325" s="3"/>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K325" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>45497.642312314812</v>
       </c>
@@ -13273,9 +13946,11 @@
       <c r="I326" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J326" s="3"/>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K326" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>45504.757168634256</v>
       </c>
@@ -13303,9 +13978,11 @@
       <c r="I327" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J327" s="3"/>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K327" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>45498.445487418983</v>
       </c>
@@ -13333,9 +14010,11 @@
       <c r="I328" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J328" s="3"/>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K328" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>45502.651346435188</v>
       </c>
@@ -13363,9 +14042,11 @@
       <c r="I329" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J329" s="3"/>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K329" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>45496.826045752314</v>
       </c>
@@ -13393,9 +14074,11 @@
       <c r="I330" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J330" s="3"/>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K330" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>45499.265229583332</v>
       </c>
@@ -13423,9 +14106,11 @@
       <c r="I331" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J331" s="3"/>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K331" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>45504.522012986112</v>
       </c>
@@ -13453,9 +14138,11 @@
       <c r="I332" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J332" s="3"/>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K332" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>45496.878632453707</v>
       </c>
@@ -13484,8 +14171,11 @@
         <v>16</v>
       </c>
       <c r="J333" s="2"/>
-    </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K333" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>45498.333512835648</v>
       </c>
@@ -13513,9 +14203,11 @@
       <c r="I334" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J334" s="3"/>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K334" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>45496.875629490736</v>
       </c>
@@ -13543,9 +14235,11 @@
       <c r="I335" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J335" s="3"/>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K335" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>45504.671551111111</v>
       </c>
@@ -13574,8 +14268,11 @@
         <v>16</v>
       </c>
       <c r="J336" s="2"/>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K336" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>45497.575440682871</v>
       </c>
@@ -13604,8 +14301,11 @@
         <v>16</v>
       </c>
       <c r="J337" s="2"/>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K337" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>45497.51601068287</v>
       </c>
@@ -13633,11 +14333,14 @@
       <c r="I338" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J338" s="5" t="s">
+      <c r="J338" s="4" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K338" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>45497.433619074072</v>
       </c>
@@ -13665,9 +14368,11 @@
       <c r="I339" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J339" s="3"/>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K339" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>45497.316170243052</v>
       </c>
@@ -13696,8 +14401,11 @@
         <v>16</v>
       </c>
       <c r="J340" s="2"/>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K340" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>45504.926840972221</v>
       </c>
@@ -13725,9 +14433,11 @@
       <c r="I341" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J341" s="3"/>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K341" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>45497.506279525463</v>
       </c>
@@ -13755,9 +14465,11 @@
       <c r="I342" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J342" s="3"/>
-    </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K342" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>45504.834583761578</v>
       </c>
@@ -13785,9 +14497,11 @@
       <c r="I343" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J343" s="3"/>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K343" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>45502.42385788195</v>
       </c>
@@ -13816,8 +14530,11 @@
         <v>6</v>
       </c>
       <c r="J344" s="2"/>
-    </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K344" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>45497.550760092592</v>
       </c>
@@ -13845,9 +14562,11 @@
       <c r="I345" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J345" s="3"/>
-    </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K345" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>45504.518151006945</v>
       </c>
@@ -13875,9 +14594,11 @@
       <c r="I346" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J346" s="3"/>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K346" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>45504.632279155092</v>
       </c>
@@ -13905,9 +14626,11 @@
       <c r="I347" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J347" s="3"/>
-    </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K347" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>45498.548464930558</v>
       </c>
@@ -13935,9 +14658,11 @@
       <c r="I348" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J348" s="3"/>
-    </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K348" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>45498.490372881948</v>
       </c>
@@ -13966,8 +14691,11 @@
         <v>6</v>
       </c>
       <c r="J349" s="2"/>
-    </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K349" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>45497.426366400468</v>
       </c>
@@ -13995,9 +14723,11 @@
       <c r="I350" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J350" s="3"/>
-    </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K350" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>45502.432264722222</v>
       </c>
@@ -14025,9 +14755,11 @@
       <c r="I351" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J351" s="3"/>
-    </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K351" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>45497.398804305558</v>
       </c>
@@ -14055,9 +14787,11 @@
       <c r="I352" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J352" s="3"/>
-    </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K352" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>45499.442599444446</v>
       </c>
@@ -14085,9 +14819,11 @@
       <c r="I353" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J353" s="3"/>
-    </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K353" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>45502.471806180554</v>
       </c>
@@ -14116,8 +14852,11 @@
         <v>16</v>
       </c>
       <c r="J354" s="2"/>
-    </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K354" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>45497.429661782407</v>
       </c>
@@ -14145,11 +14884,14 @@
       <c r="I355" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J355" s="5" t="s">
+      <c r="J355" s="4" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K355" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>45504.555204351855</v>
       </c>
@@ -14177,9 +14919,11 @@
       <c r="I356" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J356" s="3"/>
-    </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K356" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>45500.939246493057</v>
       </c>
@@ -14207,9 +14951,11 @@
       <c r="I357" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J357" s="3"/>
-    </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K357" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>45504.391399907407</v>
       </c>
@@ -14237,9 +14983,11 @@
       <c r="I358" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J358" s="3"/>
-    </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K358" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>45504.699812222221</v>
       </c>
@@ -14267,9 +15015,11 @@
       <c r="I359" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J359" s="3"/>
-    </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K359" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>45498.439797071755</v>
       </c>
@@ -14297,9 +15047,11 @@
       <c r="I360" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J360" s="3"/>
-    </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K360" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>45497.456231342592</v>
       </c>
@@ -14327,9 +15079,11 @@
       <c r="I361" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J361" s="3"/>
-    </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K361" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>45504.624953240738</v>
       </c>
@@ -14357,9 +15111,11 @@
       <c r="I362" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J362" s="3"/>
-    </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K362" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>45497.511946550927</v>
       </c>
@@ -14387,9 +15143,11 @@
       <c r="I363" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J363" s="3"/>
-    </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K363" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>45497.658311261577</v>
       </c>
@@ -14417,9 +15175,11 @@
       <c r="I364" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J364" s="3"/>
-    </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K364" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>45497.340726863426</v>
       </c>
@@ -14447,9 +15207,11 @@
       <c r="I365" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J365" s="3"/>
-    </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K365" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>45497.429026574071</v>
       </c>
@@ -14477,9 +15239,11 @@
       <c r="I366" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J366" s="3"/>
-    </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K366" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>45497.424350173613</v>
       </c>
@@ -14507,9 +15271,11 @@
       <c r="I367" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J367" s="3"/>
-    </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K367" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>45503.632278819445</v>
       </c>
@@ -14537,9 +15303,11 @@
       <c r="I368" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J368" s="3"/>
-    </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K368" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>45497.535195381948</v>
       </c>
@@ -14568,8 +15336,11 @@
         <v>6</v>
       </c>
       <c r="J369" s="2"/>
-    </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K369" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>45497.432849988429</v>
       </c>
@@ -14598,8 +15369,11 @@
         <v>6</v>
       </c>
       <c r="J370" s="2"/>
-    </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K370" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>45497.607242662038</v>
       </c>
@@ -14627,9 +15401,11 @@
       <c r="I371" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J371" s="3"/>
-    </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K371" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>45497.438759699071</v>
       </c>
@@ -14657,9 +15433,11 @@
       <c r="I372" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J372" s="3"/>
-    </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K372" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>45497.536085914355</v>
       </c>
@@ -14687,9 +15465,11 @@
       <c r="I373" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J373" s="3"/>
-    </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K373" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>45497.466469178238</v>
       </c>
@@ -14717,9 +15497,11 @@
       <c r="I374" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J374" s="3"/>
-    </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K374" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>45498.309271990744</v>
       </c>
@@ -14747,9 +15529,11 @@
       <c r="I375" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J375" s="3"/>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K375" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>45497.624812928239</v>
       </c>
@@ -14777,9 +15561,11 @@
       <c r="I376" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J376" s="3"/>
-    </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K376" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>45499.120385011571</v>
       </c>
@@ -14807,9 +15593,11 @@
       <c r="I377" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J377" s="3"/>
-    </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K377" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>45497.463818703705</v>
       </c>
@@ -14838,8 +15626,11 @@
         <v>6</v>
       </c>
       <c r="J378" s="2"/>
-    </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K378" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>45503.956783437505</v>
       </c>
@@ -14867,9 +15658,11 @@
       <c r="I379" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J379" s="3"/>
-    </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K379" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>45498.623103761573</v>
       </c>
@@ -14897,9 +15690,11 @@
       <c r="I380" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J380" s="3"/>
-    </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K380" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>45498.434369062496</v>
       </c>
@@ -14927,9 +15722,11 @@
       <c r="I381" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J381" s="3"/>
-    </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K381" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>45502.494669479165</v>
       </c>
@@ -14957,9 +15754,11 @@
       <c r="I382" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J382" s="3"/>
-    </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K382" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>45504.769597743056</v>
       </c>
@@ -14987,9 +15786,11 @@
       <c r="I383" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J383" s="3"/>
-    </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K383" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>45497.37175914352</v>
       </c>
@@ -15017,9 +15818,11 @@
       <c r="I384" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J384" s="3"/>
-    </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K384" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>45499.323176006947</v>
       </c>
@@ -15047,9 +15850,11 @@
       <c r="I385" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J385" s="3"/>
-    </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K385" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>45502.882300324069</v>
       </c>
@@ -15077,9 +15882,11 @@
       <c r="I386" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J386" s="3"/>
-    </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K386" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>45504.725866145833</v>
       </c>
@@ -15107,9 +15914,11 @@
       <c r="I387" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J387" s="3"/>
-    </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K387" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>45499.466143472222</v>
       </c>
@@ -15137,9 +15946,11 @@
       <c r="I388" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J388" s="3"/>
-    </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K388" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>45503.541283310187</v>
       </c>
@@ -15167,9 +15978,11 @@
       <c r="I389" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J389" s="3"/>
-    </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K389" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>45497.541187303243</v>
       </c>
@@ -15197,9 +16010,11 @@
       <c r="I390" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J390" s="3"/>
-    </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K390" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>45497.510004050928</v>
       </c>
@@ -15227,11 +16042,14 @@
       <c r="I391" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J391" s="5" t="s">
+      <c r="J391" s="4" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K391" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>45502.388720925926</v>
       </c>
@@ -15259,9 +16077,11 @@
       <c r="I392" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J392" s="3"/>
-    </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K392" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>45497.666706284726</v>
       </c>
@@ -15289,9 +16109,11 @@
       <c r="I393" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J393" s="3"/>
-    </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K393" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>45497.447019027779</v>
       </c>
@@ -15319,9 +16141,11 @@
       <c r="I394" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J394" s="3"/>
-    </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K394" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>45497.549985775462</v>
       </c>
@@ -15349,9 +16173,11 @@
       <c r="I395" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J395" s="3"/>
-    </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K395" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>45503.42513127315</v>
       </c>
@@ -15379,9 +16205,11 @@
       <c r="I396" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J396" s="3"/>
-    </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K396" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>45504.714134085647</v>
       </c>
@@ -15409,9 +16237,11 @@
       <c r="I397" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J397" s="3"/>
-    </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K397" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>45497.495624363422</v>
       </c>
@@ -15440,8 +16270,11 @@
         <v>6</v>
       </c>
       <c r="J398" s="2"/>
-    </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K398" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>45497.45500371528</v>
       </c>
@@ -15469,9 +16302,11 @@
       <c r="I399" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J399" s="3"/>
-    </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K399" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>45503.639701967593</v>
       </c>
@@ -15499,9 +16334,11 @@
       <c r="I400" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J400" s="3"/>
-    </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K400" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>45504.747049155092</v>
       </c>
@@ -15529,9 +16366,11 @@
       <c r="I401" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J401" s="3"/>
-    </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K401" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>45500.551241921297</v>
       </c>
@@ -15559,9 +16398,11 @@
       <c r="I402" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J402" s="3"/>
-    </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K402" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>45497.665646226851</v>
       </c>
@@ -15590,8 +16431,11 @@
         <v>6</v>
       </c>
       <c r="J403" s="2"/>
-    </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K403" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>45497.681497835649</v>
       </c>
@@ -15620,8 +16464,11 @@
         <v>27</v>
       </c>
       <c r="J404" s="2"/>
-    </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K404" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>45499.466958935183</v>
       </c>
@@ -15650,8 +16497,11 @@
         <v>6</v>
       </c>
       <c r="J405" s="2"/>
-    </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K405" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>45497.558779050931</v>
       </c>
@@ -15679,9 +16529,11 @@
       <c r="I406" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J406" s="3"/>
-    </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K406" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>45497.354520300927</v>
       </c>
@@ -15709,9 +16561,11 @@
       <c r="I407" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J407" s="3"/>
-    </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K407" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>45498.646817719906</v>
       </c>
@@ -15739,11 +16593,14 @@
       <c r="I408" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J408" s="5" t="s">
+      <c r="J408" s="4" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K408" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>45497.549203993054</v>
       </c>
@@ -15771,9 +16628,11 @@
       <c r="I409" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J409" s="3"/>
-    </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K409" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>45497.533227025458</v>
       </c>
@@ -15801,9 +16660,11 @@
       <c r="I410" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J410" s="3"/>
-    </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K410" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>45497.648646250003</v>
       </c>
@@ -15831,9 +16692,11 @@
       <c r="I411" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J411" s="3"/>
-    </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K411" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>45504.675342847222</v>
       </c>
@@ -15861,9 +16724,11 @@
       <c r="I412" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J412" s="3"/>
-    </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K412" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>45497.426554803242</v>
       </c>
@@ -15891,9 +16756,11 @@
       <c r="I413" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J413" s="3"/>
-    </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K413" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>45497.687833171294</v>
       </c>
@@ -15921,9 +16788,11 @@
       <c r="I414" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J414" s="3"/>
-    </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K414" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>45504.565210393514</v>
       </c>
@@ -15951,9 +16820,11 @@
       <c r="I415" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J415" s="3"/>
-    </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K415" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>45504.769228773148</v>
       </c>
@@ -15981,9 +16852,11 @@
       <c r="I416" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J416" s="3"/>
-    </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K416" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>45496.90258519676</v>
       </c>
@@ -16011,9 +16884,11 @@
       <c r="I417" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J417" s="3"/>
-    </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K417" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>45497.549474178246</v>
       </c>
@@ -16041,9 +16916,11 @@
       <c r="I418" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J418" s="3"/>
-    </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K418" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>45504.530167569443</v>
       </c>
@@ -16071,9 +16948,11 @@
       <c r="I419" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J419" s="3"/>
-    </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K419" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>45497.534192708335</v>
       </c>
@@ -16101,9 +16980,11 @@
       <c r="I420" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J420" s="3"/>
-    </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K420" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>45504.568857430553</v>
       </c>
@@ -16131,9 +17012,11 @@
       <c r="I421" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J421" s="3"/>
-    </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K421" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>45504.665159340278</v>
       </c>
@@ -16161,9 +17044,11 @@
       <c r="I422" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J422" s="3"/>
-    </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K422" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>45504.483856331019</v>
       </c>
@@ -16191,9 +17076,11 @@
       <c r="I423" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J423" s="3"/>
-    </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K423" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>45498.599363680551</v>
       </c>
@@ -16221,9 +17108,11 @@
       <c r="I424" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J424" s="3"/>
-    </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K424" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>45504.378117939814</v>
       </c>
@@ -16251,9 +17140,11 @@
       <c r="I425" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J425" s="3"/>
-    </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K425" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>45498.517878611106</v>
       </c>
@@ -16281,9 +17172,11 @@
       <c r="I426" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J426" s="3"/>
-    </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K426" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>45497.651917627314</v>
       </c>
@@ -16311,9 +17204,11 @@
       <c r="I427" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J427" s="3"/>
-    </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K427" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>45504.72499909722</v>
       </c>
@@ -16341,11 +17236,14 @@
       <c r="I428" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J428" s="5" t="s">
+      <c r="J428" s="4" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K428" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>45497.557543657407</v>
       </c>
@@ -16373,9 +17271,11 @@
       <c r="I429" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J429" s="3"/>
-    </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K429" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>45504.528858726851</v>
       </c>
@@ -16403,9 +17303,11 @@
       <c r="I430" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J430" s="3"/>
-    </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K430" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>45497.514715081023</v>
       </c>
@@ -16433,9 +17335,11 @@
       <c r="I431" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J431" s="3"/>
-    </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K431" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>45497.474074409722</v>
       </c>
@@ -16463,9 +17367,11 @@
       <c r="I432" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J432" s="3"/>
-    </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K432" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>45498.605414571764</v>
       </c>
@@ -16493,9 +17399,11 @@
       <c r="I433" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J433" s="3"/>
-    </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K433" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>45504.665061145832</v>
       </c>
@@ -16523,9 +17431,11 @@
       <c r="I434" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J434" s="3"/>
-    </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K434" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>45497.582239583338</v>
       </c>
@@ -16553,11 +17463,14 @@
       <c r="I435" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J435" s="5" t="s">
+      <c r="J435" s="4" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K435" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>45497.448992731486</v>
       </c>
@@ -16585,9 +17498,11 @@
       <c r="I436" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J436" s="3"/>
-    </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K436" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>45502.766999004627</v>
       </c>
@@ -16615,11 +17530,14 @@
       <c r="I437" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J437" s="5" t="s">
+      <c r="J437" s="4" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K437" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>45499.401271134258</v>
       </c>
@@ -16647,9 +17565,11 @@
       <c r="I438" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J438" s="3"/>
-    </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K438" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>45497.484575011578</v>
       </c>
@@ -16677,9 +17597,11 @@
       <c r="I439" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J439" s="3"/>
-    </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K439" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>45497.518425972223</v>
       </c>
@@ -16708,8 +17630,11 @@
         <v>16</v>
       </c>
       <c r="J440" s="2"/>
-    </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K440" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>45497.793670625004</v>
       </c>
@@ -16737,9 +17662,11 @@
       <c r="I441" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J441" s="3"/>
-    </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K441" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>45498.462673055554</v>
       </c>
@@ -16767,11 +17694,14 @@
       <c r="I442" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J442" s="5" t="s">
+      <c r="J442" s="4" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K442" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>45497.528294861113</v>
       </c>
@@ -16799,9 +17729,11 @@
       <c r="I443" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J443" s="3"/>
-    </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K443" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>45496.683409317135</v>
       </c>
@@ -16829,9 +17761,11 @@
       <c r="I444" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J444" s="3"/>
-    </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K444" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>45498.294351400458</v>
       </c>
@@ -16859,9 +17793,11 @@
       <c r="I445" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J445" s="3"/>
-    </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K445" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>45497.43641195602</v>
       </c>
@@ -16889,9 +17825,11 @@
       <c r="I446" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J446" s="3"/>
-    </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K446" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>45497.42382950231</v>
       </c>
@@ -16919,9 +17857,11 @@
       <c r="I447" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J447" s="3"/>
-    </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K447" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>45497.496369826389</v>
       </c>
@@ -16950,8 +17890,11 @@
         <v>6</v>
       </c>
       <c r="J448" s="2"/>
-    </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K448" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>45503.609413321756</v>
       </c>
@@ -16979,9 +17922,11 @@
       <c r="I449" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J449" s="3"/>
-    </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K449" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>45497.433461967594</v>
       </c>
@@ -17009,9 +17954,11 @@
       <c r="I450" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J450" s="3"/>
-    </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K450" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>45502.691703055556</v>
       </c>
@@ -17039,11 +17986,14 @@
       <c r="I451" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J451" s="5" t="s">
+      <c r="J451" s="4" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K451" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>45500.587050914357</v>
       </c>
@@ -17071,9 +18021,11 @@
       <c r="I452" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J452" s="3"/>
-    </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K452" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>45502.989789432875</v>
       </c>
@@ -17101,9 +18053,11 @@
       <c r="I453" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J453" s="3"/>
-    </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K453" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>45497.561440925929</v>
       </c>
@@ -17131,9 +18085,11 @@
       <c r="I454" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J454" s="3"/>
-    </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K454" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>45499.727983460645</v>
       </c>
@@ -17161,9 +18117,11 @@
       <c r="I455" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J455" s="3"/>
-    </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K455" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>45496.824658969912</v>
       </c>
@@ -17192,8 +18150,11 @@
         <v>6</v>
       </c>
       <c r="J456" s="2"/>
-    </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K456" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>45497.436003645838</v>
       </c>
@@ -17221,9 +18182,11 @@
       <c r="I457" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J457" s="3"/>
-    </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K457" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>45502.461149849536</v>
       </c>
@@ -17251,9 +18214,11 @@
       <c r="I458" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J458" s="3"/>
-    </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K458" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>45497.481394780094</v>
       </c>
@@ -17281,9 +18246,11 @@
       <c r="I459" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J459" s="3"/>
-    </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K459" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>45497.430438703705</v>
       </c>
@@ -17312,8 +18279,11 @@
         <v>6</v>
       </c>
       <c r="J460" s="2"/>
-    </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K460" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>45504.795069421292</v>
       </c>
@@ -17341,9 +18311,11 @@
       <c r="I461" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J461" s="3"/>
-    </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K461" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>45497.863096331013</v>
       </c>
@@ -17371,9 +18343,11 @@
       <c r="I462" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J462" s="3"/>
-    </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K462" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>45504.742028159722</v>
       </c>
@@ -17401,9 +18375,11 @@
       <c r="I463" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J463" s="3"/>
-    </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K463" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>45497.471670196755</v>
       </c>
@@ -17432,8 +18408,11 @@
         <v>6</v>
       </c>
       <c r="J464" s="2"/>
-    </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K464" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>45497.493689675925</v>
       </c>
@@ -17461,9 +18440,11 @@
       <c r="I465" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J465" s="3"/>
-    </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K465" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>45504.50496539352</v>
       </c>
@@ -17491,9 +18472,11 @@
       <c r="I466" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J466" s="3"/>
-    </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K466" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>45504.798876331013</v>
       </c>
@@ -17521,9 +18504,11 @@
       <c r="I467" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J467" s="3"/>
-    </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K467" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>45503.597452604168</v>
       </c>
@@ -17551,11 +18536,14 @@
       <c r="I468" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J468" s="5" t="s">
+      <c r="J468" s="4" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K468" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>45504.707042303242</v>
       </c>
@@ -17583,9 +18571,11 @@
       <c r="I469" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J469" s="3"/>
-    </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K469" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>45499.351106620372</v>
       </c>
@@ -17614,8 +18604,11 @@
         <v>6</v>
       </c>
       <c r="J470" s="2"/>
-    </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K470" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>45504.382959791663</v>
       </c>
@@ -17643,7 +18636,9 @@
       <c r="I471" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J471" s="3"/>
+      <c r="K471" s="2" t="s">
+        <v>1008</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -17668,5 +18663,6 @@
     <hyperlink ref="J468" r:id="rId19" xr:uid="{C784AC81-4EE0-4ECE-A0C2-36BC219C94CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId20"/>
 </worksheet>
 </file>